--- a/variables CSV.xlsx
+++ b/variables CSV.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="140">
   <si>
     <t>VARIABLE</t>
   </si>
@@ -346,65 +346,6 @@
     <t>DESCRIPCION / DETALLES</t>
   </si>
   <si>
-    <t xml:space="preserve">Crear nuevas variables en funcion de esta:
-- snapshot_hour
-- snapshot_min
-- snapshot_sec
-Eliminar la variable snapshot_time
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear nuevas variables en funcion de esta:
-- scheduled_time_of_departure_hour
-- scheduled_time_of_departure_min
-- scheduled_time_of_departure_sec
-Convertir a Date la variable scheduled_time_of_departure para quedarnos unicamente con la fecha
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear nuevas variables en funcion de esta:
-- estimated_time_of_departure_hour
-- estimated_time_of_departure_min
-- estimated_time_of_departure_sec
-Convertir a Date la variable estimated_time_of_departure para quedarnos unicamente con la fecha
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear nuevas variables en funcion de esta:
-- actual_time_of_departure_hour
-- actual_time_of_departure_min
-- actual_time_of_departure_sec
-Convertir a Date la variable actual_time_of_departure para quedarnos unicamente con la fecha
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear nuevas variables en funcion de esta:
-- scheduled_time_of_arrival_hour
-- scheduled_time_of_arrival_min
-- scheduled_time_of_arrival_sec
-Convertir a Date la variable scheduled_time_of_arrival para quedarnos unicamente con la fecha
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear nuevas variables en funcion de esta:
-- actual_time_of_arrival_hour
-- actual_time_of_arrival_min
-- actual_time_of_arrival_sec
-Convertir a Date la variable actual_time_of_arrival para quedarnos unicamente con la fecha
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear nuevas variables en funcion de esta:
-- estimated_time_of_arrival_hour
-- estimated_time_of_arrival_min
-- estimated_time_of_arrival_sec
-Convertir a Date la variable estimated_time_of_arrival para quedarnos unicamente con la fecha
-</t>
-  </si>
-  <si>
-    <t>ESTAS DOS VARIABLES SON LAS QUE SE DEBEN OBTENER EN LOS MODELOS QUE HAGAMOS</t>
-  </si>
-  <si>
     <t>Todo 'Y'   (????)</t>
   </si>
   <si>
@@ -433,13 +374,92 @@
   </si>
   <si>
     <t>Convertir a Factor</t>
+  </si>
+  <si>
+    <t>ELIMINAR 
+Motivos: Es irrelevante la fecha en la que se capturaron los datos</t>
+  </si>
+  <si>
+    <t>ELIMINAR 
+Motivos: Es irrelevante la hora en la que se capturaron los datos</t>
+  </si>
+  <si>
+    <t>ELIMINAR
+Motivos: No hay datos suficientes para obtener conclusiones.
+Solo hay 3 codigos ( OR, QR y XX)</t>
+  </si>
+  <si>
+    <t>Esta en formato Factor. OK</t>
+  </si>
+  <si>
+    <t>Hacer una funcion para determinar el codigo del pais de embarque en funcion de la latitud y la longitud y con este valor asignarlo a los que sean nulos.
+Utilizar las variables board_lat, board_lon, off_lat y off_lon</t>
+  </si>
+  <si>
+    <t>ELIMINAR
+Motivo: No hay datos en esta columna</t>
+  </si>
+  <si>
+    <t>Trolaso ve un NA en python.
+En R no se ven NA.
+REVISARLO</t>
+  </si>
+  <si>
+    <t>Obtener dos variables de aquí:
+Una variable que almacene año-mes-dia
+Otra variable que almacene hora-min-sec</t>
+  </si>
+  <si>
+    <t>ELIMINAR
+Motivos: No aporta valor a los datos.</t>
+  </si>
+  <si>
+    <t>Obtener dos variables de aquí:
+Una variable que almacene año-mes-dia
+Otra variable que almacene hora-min-sec
+Los NA se calculan sumando a la fecha de salida el tiempo de retraso en la salida. Columnas scheduled_time_of_departure y departure_delay</t>
+  </si>
+  <si>
+    <t>ELIMINAR
+Motivo: No aporta valor a los datos</t>
+  </si>
+  <si>
+    <t>Obtener dos variables de aquí:
+Una variable que almacene año-mes-dia
+Otra variable que almacene hora-min-sec
+Los NA se calculan sumando a la fecha de salida el tiempo de retraso en la salida. Columnas scheduled_time_of_arrival y arrival_delay</t>
+  </si>
+  <si>
+    <t>Calcular el valor de los NA en base a las variables scheduled_time_of_departure y actual_time_of_departure</t>
+  </si>
+  <si>
+    <t>Calcular el valor de los NA en base a las variables scheduled_time_of_arrival y actual_time_of_arrival</t>
+  </si>
+  <si>
+    <t>PREGUNTAR A ISRAEL</t>
+  </si>
+  <si>
+    <t>Imposible saber los Nas</t>
+  </si>
+  <si>
+    <t>ELIMINAR
+Motivo: Todos los datos son NA</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Factor de carga</t>
+  </si>
+  <si>
+    <t>Los NA no se pueden determinar. Echar un vistazo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,13 +486,6 @@
       <color rgb="FFFF0000"/>
       <name val="Lucida Console"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -515,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -529,14 +542,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,7 +563,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -630,6 +638,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -665,6 +690,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -843,20 +885,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="40.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="73.140625" customWidth="1"/>
-    <col min="6" max="6" width="56.28515625" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="73.109375" customWidth="1"/>
+    <col min="6" max="6" width="56.33203125" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>71</v>
       </c>
@@ -864,7 +906,7 @@
         <v>222012</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>72</v>
       </c>
@@ -872,7 +914,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -883,16 +925,16 @@
         <v>109</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>107</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -902,11 +944,12 @@
       <c r="D7" t="s">
         <v>105</v>
       </c>
-      <c r="F7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="E7" s="7"/>
+      <c r="F7" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -916,11 +959,12 @@
       <c r="D8" t="s">
         <v>106</v>
       </c>
+      <c r="E8" s="7"/>
       <c r="F8" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -930,8 +974,12 @@
       <c r="D9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E9" s="7"/>
+      <c r="F9" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -942,10 +990,10 @@
         <v>77</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,7 +1007,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +1017,11 @@
       <c r="D12" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
@@ -981,7 +1032,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
@@ -992,7 +1043,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1005,8 +1056,11 @@
       <c r="E15" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1020,21 +1074,22 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="7"/>
+      <c r="F17" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1042,10 +1097,10 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1053,10 +1108,10 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1064,10 +1119,10 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1075,13 +1130,16 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1091,8 +1149,11 @@
       <c r="D22" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="F22" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1103,10 +1164,10 @@
         <v>85</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="105" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1117,10 +1178,10 @@
         <v>86</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="105" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1130,11 +1191,14 @@
       <c r="D25" t="s">
         <v>87</v>
       </c>
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
       <c r="F25" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="105" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1145,10 +1209,10 @@
         <v>88</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="105" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1159,10 +1223,10 @@
         <v>89</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="105" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1173,10 +1237,10 @@
         <v>90</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1189,11 +1253,11 @@
       <c r="E29" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1206,9 +1270,11 @@
       <c r="E30" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1218,8 +1284,11 @@
       <c r="D31" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1232,8 +1301,11 @@
       <c r="E32" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1246,8 +1318,11 @@
       <c r="E33" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1257,8 +1332,9 @@
       <c r="D34" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1268,8 +1344,14 @@
       <c r="D35" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1280,7 +1362,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
@@ -1291,367 +1373,448 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>119</v>
+      <c r="D41" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="E41" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>119</v>
+      <c r="D42" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="E42" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D43" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>119</v>
+      <c r="D45" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="E45" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>119</v>
+      <c r="D46" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="E46" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>119</v>
+      <c r="D47" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="E47" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>119</v>
+      <c r="D48" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="E48" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>119</v>
+      <c r="D49" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="E49" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C50" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>120</v>
+      <c r="D50" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="E50" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="51" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F50" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C51" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>120</v>
+      <c r="D51" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="E51" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F51" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C52" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>120</v>
+      <c r="D52" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="E52" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="53" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F52" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C53" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>120</v>
+      <c r="D53" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="E53" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="54" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F53" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C54" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>120</v>
+      <c r="D54" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="E54" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="55" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F54" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C55" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>120</v>
+      <c r="D55" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="E55" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="56" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F55" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C56" t="s">
         <v>49</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>120</v>
+      <c r="D56" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="E56" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="57" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F56" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C57" t="s">
         <v>49</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>120</v>
+      <c r="D57" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="E57" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="58" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F57" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C58" t="s">
         <v>49</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>120</v>
+      <c r="D58" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="E58" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="59" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F58" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C59" t="s">
         <v>49</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>120</v>
+      <c r="D59" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="E59" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="60" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F59" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C60" t="s">
         <v>49</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>120</v>
+      <c r="D60" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="E60" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="61" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F60" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C61" t="s">
         <v>49</v>
       </c>
-      <c r="D61" s="8" t="s">
-        <v>120</v>
+      <c r="D61" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="E61" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F61" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>119</v>
+      <c r="D62" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="E62" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D63" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C64" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>119</v>
+      <c r="D64" t="s">
+        <v>138</v>
       </c>
       <c r="E64" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
         <v>64</v>
       </c>
@@ -1664,19 +1827,25 @@
       <c r="E65" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D66" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
         <v>66</v>
       </c>
@@ -1689,8 +1858,11 @@
       <c r="E67" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
         <v>67</v>
       </c>
@@ -1703,8 +1875,11 @@
       <c r="E68" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
         <v>68</v>
       </c>
@@ -1717,8 +1892,11 @@
       <c r="E69" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
         <v>69</v>
       </c>
@@ -1731,22 +1909,25 @@
       <c r="E70" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
       </c>
-      <c r="D71" s="7" t="s">
-        <v>119</v>
+      <c r="D71" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F29:F30"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/variables CSV.xlsx
+++ b/variables CSV.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$6:$G$71</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="150">
   <si>
     <t>VARIABLE</t>
   </si>
@@ -322,15 +325,6 @@
     <t>estado del vuelo</t>
   </si>
   <si>
-    <t>Tiempo bloqueo programado</t>
-  </si>
-  <si>
-    <t>Tiempo bloqueo estimado</t>
-  </si>
-  <si>
-    <t>Tiempo bloqueo real</t>
-  </si>
-  <si>
     <t>Fecha captura de datos</t>
   </si>
   <si>
@@ -346,16 +340,7 @@
     <t>DESCRIPCION / DETALLES</t>
   </si>
   <si>
-    <t>Todo 'Y'   (????)</t>
-  </si>
-  <si>
-    <t>(????)</t>
-  </si>
-  <si>
     <t>Todos los datos de esta columna son N/A   (????)</t>
-  </si>
-  <si>
-    <t>¿Qué hacer con los NAs?</t>
   </si>
   <si>
     <t>NAs ?</t>
@@ -436,12 +421,6 @@
     <t>Calcular el valor de los NA en base a las variables scheduled_time_of_arrival y actual_time_of_arrival</t>
   </si>
   <si>
-    <t>PREGUNTAR A ISRAEL</t>
-  </si>
-  <si>
-    <t>Imposible saber los Nas</t>
-  </si>
-  <si>
     <t>ELIMINAR
 Motivo: Todos los datos son NA</t>
   </si>
@@ -453,12 +432,68 @@
   </si>
   <si>
     <t>Los NA no se pueden determinar. Echar un vistazo</t>
+  </si>
+  <si>
+    <t>Duracion real del viaje</t>
+  </si>
+  <si>
+    <t>Duracion estimada del viaje</t>
+  </si>
+  <si>
+    <t>Duracion programada del viaje</t>
+  </si>
+  <si>
+    <t>Determinar que se debe hacer con los NA</t>
+  </si>
+  <si>
+    <t>Imposible saber los NA</t>
+  </si>
+  <si>
+    <t>Pasajeros a bordo del avion</t>
+  </si>
+  <si>
+    <t>RPK: Beneficio de los pasajeros transportados multiplicado por la distancia recorrida
+Beneficio en funcion de los pasajeros</t>
+  </si>
+  <si>
+    <t>ASK: El número de plazas disponibles para la venta multiplicado por la distancia recorrida. ????</t>
+  </si>
+  <si>
+    <t>Plazas disponibles para la venta en el avion</t>
+  </si>
+  <si>
+    <t>ELIMINAR COLUMNA</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>configuracion del avion</t>
+  </si>
+  <si>
+    <t>Codigo Avion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beneficio total </t>
+  </si>
+  <si>
+    <t>Beneficio potencial</t>
+  </si>
+  <si>
+    <t>Numero de secuencia del archivo</t>
+  </si>
+  <si>
+    <t>Anulaciones de viajes</t>
+  </si>
+  <si>
+    <t>ASK: El número de plazas disponibles para la venta multiplicado por la distancia recorrida.
+Entiendo que esto seria el beneficio potencial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -528,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -542,9 +577,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,7 +603,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -638,23 +678,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -690,23 +713,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -883,22 +889,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="73.109375" customWidth="1"/>
-    <col min="6" max="6" width="56.33203125" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="73.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="56.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>71</v>
       </c>
@@ -906,7 +914,7 @@
         <v>222012</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>72</v>
       </c>
@@ -914,7 +922,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -922,19 +930,19 @@
         <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -942,14 +950,17 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="E7" s="6"/>
       <c r="F7" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="G7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -957,14 +968,17 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="E8" s="6"/>
       <c r="F8" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="G8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -974,12 +988,15 @@
       <c r="D9" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="G9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -990,10 +1007,13 @@
         <v>77</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,10 +1024,13 @@
         <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1018,10 +1041,13 @@
         <v>81</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1031,8 +1057,11 @@
       <c r="D13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G13" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1042,8 +1071,11 @@
       <c r="D14" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G14" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1057,10 +1089,13 @@
         <v>74</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1071,25 +1106,31 @@
         <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1097,10 +1138,13 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1108,10 +1152,13 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1119,10 +1166,13 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1130,16 +1180,19 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G21" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1150,10 +1203,13 @@
         <v>84</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1164,10 +1220,13 @@
         <v>85</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1177,11 +1236,15 @@
       <c r="D24" t="s">
         <v>86</v>
       </c>
+      <c r="E24" s="6"/>
       <c r="F24" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="100.8" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="G24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="105" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1195,10 +1258,13 @@
         <v>74</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1209,10 +1275,13 @@
         <v>88</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1222,11 +1291,15 @@
       <c r="D27" t="s">
         <v>89</v>
       </c>
+      <c r="E27" s="6"/>
       <c r="F27" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="100.8" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="G27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="105" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1237,10 +1310,13 @@
         <v>90</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1254,10 +1330,13 @@
         <v>74</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1271,10 +1350,13 @@
         <v>74</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1282,13 +1364,14 @@
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F31" s="4"/>
+      <c r="G31" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1296,16 +1379,19 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="G32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1313,16 +1399,19 @@
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="E33" t="s">
         <v>74</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1333,8 +1422,11 @@
         <v>93</v>
       </c>
       <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1348,10 +1440,13 @@
         <v>74</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1361,8 +1456,11 @@
       <c r="D36" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
@@ -1372,432 +1470,513 @@
       <c r="D37" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G37" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>110</v>
+      <c r="D38" t="s">
+        <v>144</v>
       </c>
       <c r="F38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>111</v>
+      <c r="D39" t="s">
+        <v>143</v>
       </c>
       <c r="F39" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>111</v>
+      <c r="D40" t="s">
+        <v>140</v>
       </c>
       <c r="F40" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>111</v>
+      <c r="D41" t="s">
+        <v>137</v>
       </c>
       <c r="E41" t="s">
         <v>74</v>
       </c>
       <c r="F41" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>111</v>
+      <c r="D42" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="E42" t="s">
         <v>74</v>
       </c>
       <c r="F42" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>111</v>
+      <c r="D43" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>111</v>
+      <c r="D44" t="s">
+        <v>144</v>
       </c>
       <c r="F44" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>111</v>
+      <c r="D45" t="s">
+        <v>143</v>
       </c>
       <c r="E45" t="s">
         <v>74</v>
       </c>
       <c r="F45" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>111</v>
+      <c r="D46" t="s">
+        <v>140</v>
       </c>
       <c r="E46" t="s">
         <v>74</v>
       </c>
       <c r="F46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>111</v>
+      <c r="D47" t="s">
+        <v>137</v>
       </c>
       <c r="E47" t="s">
         <v>74</v>
       </c>
       <c r="F47" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>111</v>
+      <c r="D48" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="E48" t="s">
         <v>74</v>
       </c>
       <c r="F48" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>111</v>
+      <c r="D49" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="E49" t="s">
         <v>74</v>
       </c>
       <c r="F49" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C50" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D50" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="G50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C51" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="D51" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="G51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C52" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="D52" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="G52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C53" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="D53" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="G53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C54" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="D54" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="G54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C55" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="D55" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="G55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C56" t="s">
         <v>49</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="D56" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="G56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C57" t="s">
         <v>49</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="D57" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="G57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C58" t="s">
         <v>49</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="D58" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="G58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C59" t="s">
         <v>49</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="D59" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="G59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C60" t="s">
         <v>49</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="D60" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="G60" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C61" t="s">
         <v>49</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="D61" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="G61" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>111</v>
+      <c r="D62" t="s">
+        <v>145</v>
       </c>
       <c r="E62" t="s">
         <v>74</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>111</v>
+      <c r="D63" t="s">
+        <v>146</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>63</v>
       </c>
@@ -1805,16 +1984,19 @@
         <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E64" t="s">
         <v>74</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>64</v>
       </c>
@@ -1828,24 +2010,30 @@
         <v>74</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>111</v>
+      <c r="D66" t="s">
+        <v>148</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>66</v>
       </c>
@@ -1859,10 +2047,13 @@
         <v>74</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>67</v>
       </c>
@@ -1876,10 +2067,13 @@
         <v>74</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>68</v>
       </c>
@@ -1893,10 +2087,13 @@
         <v>74</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>69</v>
       </c>
@@ -1910,24 +2107,37 @@
         <v>74</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>111</v>
+      <c r="D71" t="s">
+        <v>147</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>137</v>
+        <v>129</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B6:G71">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="NO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/variables CSV.xlsx
+++ b/variables CSV.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="149">
   <si>
     <t>VARIABLE</t>
   </si>
@@ -428,9 +428,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>Factor de carga</t>
-  </si>
-  <si>
     <t>Los NA no se pueden determinar. Echar un vistazo</t>
   </si>
   <si>
@@ -456,13 +453,7 @@
 Beneficio en funcion de los pasajeros</t>
   </si>
   <si>
-    <t>ASK: El número de plazas disponibles para la venta multiplicado por la distancia recorrida. ????</t>
-  </si>
-  <si>
     <t>Plazas disponibles para la venta en el avion</t>
-  </si>
-  <si>
-    <t>ELIMINAR COLUMNA</t>
   </si>
   <si>
     <t>NO</t>
@@ -488,6 +479,13 @@
   <si>
     <t>ASK: El número de plazas disponibles para la venta multiplicado por la distancia recorrida.
 Entiendo que esto seria el beneficio potencial</t>
+  </si>
+  <si>
+    <t>ELIMINAR CAMPO</t>
+  </si>
+  <si>
+    <t>Factor de carga del avion.
+Esto es el porcentaje de ocupacion del avion en el viaje</t>
   </si>
 </sst>
 </file>
@@ -893,7 +891,7 @@
   <dimension ref="B2:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,7 +937,7 @@
         <v>104</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -1010,7 +1008,7 @@
         <v>113</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -1027,7 +1025,7 @@
         <v>105</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -1044,7 +1042,7 @@
         <v>117</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -1058,7 +1056,7 @@
         <v>82</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
@@ -1072,7 +1070,7 @@
         <v>83</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -1092,7 +1090,7 @@
         <v>118</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -1109,7 +1107,7 @@
         <v>105</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -1141,7 +1139,7 @@
         <v>109</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -1155,7 +1153,7 @@
         <v>110</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -1169,7 +1167,7 @@
         <v>111</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -1189,7 +1187,7 @@
         <v>118</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -1206,7 +1204,7 @@
         <v>120</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -1223,7 +1221,7 @@
         <v>121</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -1261,7 +1259,7 @@
         <v>123</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -1278,7 +1276,7 @@
         <v>121</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -1313,7 +1311,7 @@
         <v>125</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1333,7 +1331,7 @@
         <v>126</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1353,7 +1351,7 @@
         <v>127</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -1364,11 +1362,11 @@
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -1379,7 +1377,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>74</v>
@@ -1399,16 +1397,16 @@
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E33" t="s">
         <v>74</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -1423,7 +1421,7 @@
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
@@ -1440,10 +1438,10 @@
         <v>74</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
@@ -1457,7 +1455,7 @@
         <v>101</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
@@ -1471,7 +1469,7 @@
         <v>95</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
@@ -1482,13 +1480,13 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F38" t="s">
         <v>129</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
@@ -1499,13 +1497,13 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F39" t="s">
         <v>129</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
@@ -1516,13 +1514,13 @@
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F40" t="s">
         <v>129</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
@@ -1533,7 +1531,7 @@
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E41" t="s">
         <v>74</v>
@@ -1542,7 +1540,7 @@
         <v>129</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -1553,7 +1551,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E42" t="s">
         <v>74</v>
@@ -1562,10 +1560,10 @@
         <v>129</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
@@ -1573,13 +1571,13 @@
         <v>6</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F43" t="s">
         <v>129</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
@@ -1590,13 +1588,13 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F44" t="s">
         <v>129</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
@@ -1607,7 +1605,7 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E45" t="s">
         <v>74</v>
@@ -1616,7 +1614,7 @@
         <v>129</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
@@ -1627,7 +1625,7 @@
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E46" t="s">
         <v>74</v>
@@ -1636,7 +1634,7 @@
         <v>129</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
@@ -1647,7 +1645,7 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E47" t="s">
         <v>74</v>
@@ -1656,7 +1654,7 @@
         <v>129</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -1667,7 +1665,7 @@
         <v>6</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E48" t="s">
         <v>74</v>
@@ -1676,7 +1674,7 @@
         <v>129</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -1687,7 +1685,7 @@
         <v>6</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E49" t="s">
         <v>74</v>
@@ -1696,7 +1694,7 @@
         <v>129</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -1947,7 +1945,7 @@
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E62" t="s">
         <v>74</v>
@@ -1956,7 +1954,7 @@
         <v>129</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
@@ -1967,33 +1965,33 @@
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>129</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C64" t="s">
         <v>10</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E64" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E64" t="s">
-        <v>74</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="G64" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
@@ -2010,10 +2008,10 @@
         <v>74</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
@@ -2024,13 +2022,13 @@
         <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>129</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
@@ -2047,10 +2045,10 @@
         <v>74</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
@@ -2067,10 +2065,10 @@
         <v>74</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
@@ -2087,10 +2085,10 @@
         <v>74</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
@@ -2107,10 +2105,10 @@
         <v>74</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
@@ -2121,13 +2119,13 @@
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>129</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
